--- a/routes/sucursales.xlsx
+++ b/routes/sucursales.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\siec\routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sisgiec\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="200">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -116,9 +116,6 @@
     <t>LIMA</t>
   </si>
   <si>
-    <t>BUSTAMANTE Y RIVERO</t>
-  </si>
-  <si>
     <t>AV. VIDAURRAGA LOTE 8</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>JR. CAJAMARCA MZ14 LOTE 9 SECTOR 2 1</t>
   </si>
   <si>
-    <t xml:space="preserve">SAN IGNACIO </t>
-  </si>
-  <si>
     <t>SECHURA</t>
   </si>
   <si>
@@ -615,6 +609,21 @@
   </si>
   <si>
     <t>LA QUEBRADA S/N</t>
+  </si>
+  <si>
+    <t>JOSE LUIS BUSTAMANTE Y RIVERO</t>
+  </si>
+  <si>
+    <t>CHINCHA ALTA</t>
+  </si>
+  <si>
+    <t>TAMBO GRANDE</t>
+  </si>
+  <si>
+    <t>PARIÑAS</t>
+  </si>
+  <si>
+    <t>HUACHO AGENCIA</t>
   </si>
 </sst>
 </file>
@@ -944,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H80"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,221 +1117,221 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
         <v>44</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>51</v>
       </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -1337,19 +1346,19 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
@@ -1360,48 +1369,48 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
         <v>61</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" t="s">
-        <v>63</v>
-      </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
         <v>64</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
@@ -1409,24 +1418,24 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -1438,21 +1447,21 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
@@ -1461,50 +1470,50 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>72</v>
-      </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
         <v>73</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1513,50 +1522,50 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
         <v>77</v>
       </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>78</v>
-      </c>
       <c r="G23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
         <v>79</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
@@ -1576,66 +1585,66 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
         <v>82</v>
       </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>83</v>
       </c>
-      <c r="G25" t="s">
-        <v>84</v>
-      </c>
       <c r="H25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
         <v>85</v>
       </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s">
         <v>83</v>
       </c>
-      <c r="G26" t="s">
-        <v>84</v>
-      </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
         <v>87</v>
       </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
@@ -1646,48 +1655,48 @@
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" t="s">
         <v>89</v>
       </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" t="s">
-        <v>90</v>
-      </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
         <v>91</v>
       </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
@@ -1695,25 +1704,25 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
         <v>93</v>
       </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
       <c r="D30" t="s">
         <v>19</v>
       </c>
@@ -1721,25 +1730,25 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
         <v>95</v>
       </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
@@ -1750,22 +1759,22 @@
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
         <v>97</v>
       </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
@@ -1776,21 +1785,21 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
         <v>99</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>100</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -1805,7 +1814,7 @@
         <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1816,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -1836,13 +1845,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
         <v>102</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -1862,13 +1871,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -1883,18 +1892,18 @@
         <v>29</v>
       </c>
       <c r="H36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -1909,18 +1918,18 @@
         <v>29</v>
       </c>
       <c r="H37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -1929,24 +1938,24 @@
         <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -1958,21 +1967,21 @@
         <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
@@ -1987,18 +1996,18 @@
         <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -2010,21 +2019,21 @@
         <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -2036,21 +2045,21 @@
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H42" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -2059,24 +2068,24 @@
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
         <v>28</v>
@@ -2085,24 +2094,24 @@
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="G44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -2111,24 +2120,24 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="H45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
@@ -2140,21 +2149,21 @@
         <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
@@ -2169,18 +2178,18 @@
         <v>29</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
@@ -2195,18 +2204,18 @@
         <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
         <v>28</v>
@@ -2218,47 +2227,47 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
         <v>32</v>
       </c>
-      <c r="E50" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" t="s">
-        <v>33</v>
-      </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -2270,21 +2279,21 @@
         <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -2293,24 +2302,24 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -2325,18 +2334,18 @@
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
         <v>28</v>
@@ -2356,13 +2365,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D55" t="s">
         <v>28</v>
@@ -2374,21 +2383,21 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
         <v>28</v>
@@ -2400,21 +2409,21 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
+        <v>142</v>
+      </c>
+      <c r="H56" t="s">
         <v>144</v>
-      </c>
-      <c r="H56" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D57" t="s">
         <v>28</v>
@@ -2426,21 +2435,21 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
+        <v>142</v>
+      </c>
+      <c r="H57" t="s">
         <v>144</v>
-      </c>
-      <c r="H57" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
         <v>28</v>
@@ -2452,21 +2461,21 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" t="s">
         <v>144</v>
-      </c>
-      <c r="H58" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
@@ -2486,13 +2495,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B60" t="s">
         <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>19</v>
@@ -2507,70 +2516,70 @@
         <v>12</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -2579,13 +2588,13 @@
         <v>20</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2596,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D64" t="s">
         <v>19</v>
@@ -2616,39 +2625,39 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E65" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
@@ -2657,24 +2666,24 @@
         <v>20</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
@@ -2686,21 +2695,21 @@
         <v>13</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D68" t="s">
         <v>19</v>
@@ -2709,24 +2718,24 @@
         <v>20</v>
       </c>
       <c r="F68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H68" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -2735,24 +2744,24 @@
         <v>20</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D70" t="s">
         <v>28</v>
@@ -2767,18 +2776,18 @@
         <v>29</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D71" t="s">
         <v>28</v>
@@ -2793,18 +2802,18 @@
         <v>29</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D72" t="s">
         <v>28</v>
@@ -2819,70 +2828,70 @@
         <v>29</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B73" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="G73" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="D73" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B74" t="s">
         <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E74" t="s">
         <v>20</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B75" t="s">
         <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
@@ -2902,13 +2911,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
@@ -2928,14 +2937,14 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" t="s">
         <v>188</v>
       </c>
-      <c r="B77" t="s">
-        <v>189</v>
-      </c>
-      <c r="C77" t="s">
-        <v>190</v>
-      </c>
       <c r="D77" t="s">
         <v>19</v>
       </c>
@@ -2943,24 +2952,24 @@
         <v>20</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H77" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D78" t="s">
         <v>19</v>
@@ -2980,13 +2989,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B79" t="s">
         <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D79" t="s">
         <v>19</v>
@@ -3006,13 +3015,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B80" t="s">
         <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D80" t="s">
         <v>19</v>
